--- a/Master/MasterData/AnpanPopArea.xlsx
+++ b/Master/MasterData/AnpanPopArea.xlsx
@@ -40,28 +40,28 @@
     <t xml:space="preserve">Range</t>
   </si>
   <si>
-    <t xml:space="preserve">AnpanMinHp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AnpanMaxHp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AnpanMinAtk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AnpanMaxAtk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AnpanMinDef</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AnpanMaxDef</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AnpanMinExp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AnpanMaxExp</t>
+    <t xml:space="preserve">MinHp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MaxHp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MinAtk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MaxAtk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MinDef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MaxDef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MinExp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MaxExp</t>
   </si>
   <si>
     <t xml:space="preserve">u32</t>
@@ -274,10 +274,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:M29"/>
+  <dimension ref="A3:M28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -376,7 +376,7 @@
         <v>17</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" s="4" t="n">
         <v>0</v>
@@ -388,33 +388,33 @@
         <v>1000</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" s="4" t="n">
         <v>0</v>
@@ -426,33 +426,33 @@
         <v>1000</v>
       </c>
       <c r="F9" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="H9" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="I9" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="G9" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="I9" s="4" t="n">
+      <c r="J9" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="J9" s="4" t="n">
-        <v>10</v>
-      </c>
       <c r="K9" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="L9" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="L9" s="4" t="n">
-        <v>10</v>
-      </c>
       <c r="M9" s="4" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" s="4" t="n">
         <v>0</v>
@@ -464,33 +464,33 @@
         <v>1000</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I10" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="J10" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="J10" s="4" t="n">
-        <v>20</v>
-      </c>
       <c r="K10" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="L10" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="L10" s="4" t="n">
-        <v>20</v>
-      </c>
       <c r="M10" s="4" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" s="4" t="n">
         <v>0</v>
@@ -502,33 +502,33 @@
         <v>1000</v>
       </c>
       <c r="F11" s="4" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="G11" s="4" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H11" s="4" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I11" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="J11" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="J11" s="4" t="n">
-        <v>30</v>
-      </c>
       <c r="K11" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="L11" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="L11" s="4" t="n">
-        <v>30</v>
-      </c>
       <c r="M11" s="4" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12" s="4" t="n">
         <v>0</v>
@@ -540,33 +540,33 @@
         <v>1000</v>
       </c>
       <c r="F12" s="4" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="G12" s="4" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="H12" s="4" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I12" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="J12" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="J12" s="4" t="n">
-        <v>40</v>
-      </c>
       <c r="K12" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="L12" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="L12" s="4" t="n">
-        <v>40</v>
-      </c>
       <c r="M12" s="4" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C13" s="4" t="n">
         <v>0</v>
@@ -578,33 +578,33 @@
         <v>1000</v>
       </c>
       <c r="F13" s="4" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="G13" s="4" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="H13" s="4" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I13" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="J13" s="4" t="n">
         <v>60</v>
       </c>
-      <c r="J13" s="4" t="n">
-        <v>50</v>
-      </c>
       <c r="K13" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="L13" s="4" t="n">
         <v>60</v>
       </c>
-      <c r="L13" s="4" t="n">
-        <v>50</v>
-      </c>
       <c r="M13" s="4" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" s="4" t="n">
         <v>0</v>
@@ -616,67 +616,43 @@
         <v>1000</v>
       </c>
       <c r="F14" s="4" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="G14" s="4" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="H14" s="4" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="I14" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="J14" s="4" t="n">
         <v>70</v>
       </c>
-      <c r="J14" s="4" t="n">
-        <v>60</v>
-      </c>
       <c r="K14" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="L14" s="4" t="n">
         <v>70</v>
       </c>
-      <c r="L14" s="4" t="n">
-        <v>60</v>
-      </c>
       <c r="M14" s="4" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="C15" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F15" s="4" t="n">
-        <v>150</v>
-      </c>
-      <c r="G15" s="4" t="n">
-        <v>160</v>
-      </c>
-      <c r="H15" s="4" t="n">
-        <v>70</v>
-      </c>
-      <c r="I15" s="4" t="n">
-        <v>80</v>
-      </c>
-      <c r="J15" s="4" t="n">
-        <v>70</v>
-      </c>
-      <c r="K15" s="4" t="n">
-        <v>80</v>
-      </c>
-      <c r="L15" s="4" t="n">
-        <v>70</v>
-      </c>
-      <c r="M15" s="4" t="n">
-        <v>80</v>
-      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="4"/>
@@ -860,20 +836,6 @@
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Master/MasterData/AnpanPopArea.xlsx
+++ b/Master/MasterData/AnpanPopArea.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t xml:space="preserve">$AUTO_KEY</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t xml:space="preserve">Range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PopInterval</t>
   </si>
   <si>
     <t xml:space="preserve">MinHp</t>
@@ -274,10 +277,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:M28"/>
+  <dimension ref="A3:N28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -332,48 +335,54 @@
       <c r="M6" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="N6" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="G7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" s="4" t="n">
         <v>2</v>
@@ -388,27 +397,30 @@
         <v>1000</v>
       </c>
       <c r="F8" s="4" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="G8" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="G8" s="4" t="n">
+      <c r="H8" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="H8" s="4" t="n">
+      <c r="I8" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="I8" s="4" t="n">
+      <c r="J8" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="J8" s="4" t="n">
+      <c r="K8" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="K8" s="4" t="n">
+      <c r="L8" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="L8" s="4" t="n">
+      <c r="M8" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="M8" s="4" t="n">
+      <c r="N8" s="4" t="n">
         <v>20</v>
       </c>
     </row>
@@ -426,27 +438,30 @@
         <v>1000</v>
       </c>
       <c r="F9" s="4" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="G9" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="G9" s="4" t="n">
+      <c r="H9" s="4" t="n">
         <v>60</v>
       </c>
-      <c r="H9" s="4" t="n">
+      <c r="I9" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="I9" s="4" t="n">
+      <c r="J9" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="J9" s="4" t="n">
+      <c r="K9" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K9" s="4" t="n">
+      <c r="L9" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="L9" s="4" t="n">
+      <c r="M9" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="M9" s="4" t="n">
+      <c r="N9" s="4" t="n">
         <v>30</v>
       </c>
     </row>
@@ -464,27 +479,30 @@
         <v>1000</v>
       </c>
       <c r="F10" s="4" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="G10" s="4" t="n">
         <v>70</v>
       </c>
-      <c r="G10" s="4" t="n">
+      <c r="H10" s="4" t="n">
         <v>80</v>
       </c>
-      <c r="H10" s="4" t="n">
+      <c r="I10" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="I10" s="4" t="n">
+      <c r="J10" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="J10" s="4" t="n">
+      <c r="K10" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K10" s="4" t="n">
+      <c r="L10" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="L10" s="4" t="n">
+      <c r="M10" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="M10" s="4" t="n">
+      <c r="N10" s="4" t="n">
         <v>40</v>
       </c>
     </row>
@@ -502,27 +520,30 @@
         <v>1000</v>
       </c>
       <c r="F11" s="4" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="G11" s="4" t="n">
         <v>90</v>
       </c>
-      <c r="G11" s="4" t="n">
+      <c r="H11" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="H11" s="4" t="n">
+      <c r="I11" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="I11" s="4" t="n">
+      <c r="J11" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="J11" s="4" t="n">
+      <c r="K11" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="K11" s="4" t="n">
+      <c r="L11" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="L11" s="4" t="n">
+      <c r="M11" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="M11" s="4" t="n">
+      <c r="N11" s="4" t="n">
         <v>50</v>
       </c>
     </row>
@@ -540,27 +561,30 @@
         <v>1000</v>
       </c>
       <c r="F12" s="4" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="G12" s="4" t="n">
         <v>110</v>
       </c>
-      <c r="G12" s="4" t="n">
+      <c r="H12" s="4" t="n">
         <v>120</v>
       </c>
-      <c r="H12" s="4" t="n">
+      <c r="I12" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="I12" s="4" t="n">
+      <c r="J12" s="4" t="n">
         <v>60</v>
       </c>
-      <c r="J12" s="4" t="n">
+      <c r="K12" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="K12" s="4" t="n">
+      <c r="L12" s="4" t="n">
         <v>60</v>
       </c>
-      <c r="L12" s="4" t="n">
+      <c r="M12" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="M12" s="4" t="n">
+      <c r="N12" s="4" t="n">
         <v>60</v>
       </c>
     </row>
@@ -578,27 +602,30 @@
         <v>1000</v>
       </c>
       <c r="F13" s="4" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="G13" s="4" t="n">
         <v>130</v>
       </c>
-      <c r="G13" s="4" t="n">
+      <c r="H13" s="4" t="n">
         <v>140</v>
       </c>
-      <c r="H13" s="4" t="n">
+      <c r="I13" s="4" t="n">
         <v>60</v>
       </c>
-      <c r="I13" s="4" t="n">
+      <c r="J13" s="4" t="n">
         <v>70</v>
       </c>
-      <c r="J13" s="4" t="n">
+      <c r="K13" s="4" t="n">
         <v>60</v>
       </c>
-      <c r="K13" s="4" t="n">
+      <c r="L13" s="4" t="n">
         <v>70</v>
       </c>
-      <c r="L13" s="4" t="n">
+      <c r="M13" s="4" t="n">
         <v>60</v>
       </c>
-      <c r="M13" s="4" t="n">
+      <c r="N13" s="4" t="n">
         <v>70</v>
       </c>
     </row>
@@ -616,27 +643,30 @@
         <v>1000</v>
       </c>
       <c r="F14" s="4" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="G14" s="4" t="n">
         <v>150</v>
       </c>
-      <c r="G14" s="4" t="n">
+      <c r="H14" s="4" t="n">
         <v>160</v>
       </c>
-      <c r="H14" s="4" t="n">
+      <c r="I14" s="4" t="n">
         <v>70</v>
       </c>
-      <c r="I14" s="4" t="n">
+      <c r="J14" s="4" t="n">
         <v>80</v>
       </c>
-      <c r="J14" s="4" t="n">
+      <c r="K14" s="4" t="n">
         <v>70</v>
       </c>
-      <c r="K14" s="4" t="n">
+      <c r="L14" s="4" t="n">
         <v>80</v>
       </c>
-      <c r="L14" s="4" t="n">
+      <c r="M14" s="4" t="n">
         <v>70</v>
       </c>
-      <c r="M14" s="4" t="n">
+      <c r="N14" s="4" t="n">
         <v>80</v>
       </c>
     </row>
@@ -653,6 +683,7 @@
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="4"/>
@@ -667,6 +698,7 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="4"/>
@@ -681,6 +713,7 @@
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="4"/>
@@ -695,6 +728,7 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="4"/>
@@ -709,6 +743,7 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="4"/>
@@ -723,6 +758,7 @@
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="4"/>
@@ -737,6 +773,7 @@
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="4"/>
@@ -751,6 +788,7 @@
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="4"/>
@@ -765,6 +803,7 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="4"/>
@@ -779,6 +818,7 @@
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="4"/>
@@ -793,6 +833,7 @@
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="4"/>
@@ -807,6 +848,7 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="4"/>
@@ -821,6 +863,7 @@
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="4"/>
@@ -835,6 +878,7 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Master/MasterData/AnpanPopArea.xlsx
+++ b/Master/MasterData/AnpanPopArea.xlsx
@@ -280,7 +280,7 @@
   <dimension ref="A3:N28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -397,7 +397,7 @@
         <v>1000</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>5000000</v>
+        <v>5000</v>
       </c>
       <c r="G8" s="4" t="n">
         <v>30</v>
@@ -438,7 +438,7 @@
         <v>1000</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>5000000</v>
+        <v>5000</v>
       </c>
       <c r="G9" s="4" t="n">
         <v>50</v>
@@ -479,7 +479,7 @@
         <v>1000</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>5000000</v>
+        <v>5000</v>
       </c>
       <c r="G10" s="4" t="n">
         <v>70</v>
@@ -520,7 +520,7 @@
         <v>1000</v>
       </c>
       <c r="F11" s="4" t="n">
-        <v>5000000</v>
+        <v>5000</v>
       </c>
       <c r="G11" s="4" t="n">
         <v>90</v>
@@ -561,7 +561,7 @@
         <v>1000</v>
       </c>
       <c r="F12" s="4" t="n">
-        <v>5000000</v>
+        <v>5000</v>
       </c>
       <c r="G12" s="4" t="n">
         <v>110</v>
@@ -602,7 +602,7 @@
         <v>1000</v>
       </c>
       <c r="F13" s="4" t="n">
-        <v>5000000</v>
+        <v>5000</v>
       </c>
       <c r="G13" s="4" t="n">
         <v>130</v>
@@ -643,7 +643,7 @@
         <v>1000</v>
       </c>
       <c r="F14" s="4" t="n">
-        <v>5000000</v>
+        <v>5000</v>
       </c>
       <c r="G14" s="4" t="n">
         <v>150</v>

--- a/Master/MasterData/AnpanPopArea.xlsx
+++ b/Master/MasterData/AnpanPopArea.xlsx
@@ -280,7 +280,7 @@
   <dimension ref="A3:N28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -353,7 +353,7 @@
         <v>16</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>17</v>

--- a/Master/MasterData/AnpanPopArea.xlsx
+++ b/Master/MasterData/AnpanPopArea.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
   <si>
     <t xml:space="preserve">$AUTO_KEY</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t xml:space="preserve">PopInterval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MaxCount</t>
   </si>
   <si>
     <t xml:space="preserve">MinHp</t>
@@ -277,10 +280,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:N28"/>
+  <dimension ref="A3:O28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -338,51 +341,57 @@
       <c r="N6" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="O6" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="H7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="4" t="n">
         <v>2</v>
@@ -400,27 +409,30 @@
         <v>5000</v>
       </c>
       <c r="G8" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="H8" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="H8" s="4" t="n">
+      <c r="I8" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="I8" s="4" t="n">
+      <c r="J8" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="J8" s="4" t="n">
+      <c r="K8" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K8" s="4" t="n">
+      <c r="L8" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="L8" s="4" t="n">
+      <c r="M8" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="M8" s="4" t="n">
+      <c r="N8" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="N8" s="4" t="n">
+      <c r="O8" s="4" t="n">
         <v>20</v>
       </c>
     </row>
@@ -441,27 +453,30 @@
         <v>5000</v>
       </c>
       <c r="G9" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="H9" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="H9" s="4" t="n">
+      <c r="I9" s="4" t="n">
         <v>60</v>
       </c>
-      <c r="I9" s="4" t="n">
+      <c r="J9" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="J9" s="4" t="n">
+      <c r="K9" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K9" s="4" t="n">
+      <c r="L9" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="L9" s="4" t="n">
+      <c r="M9" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="M9" s="4" t="n">
+      <c r="N9" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="N9" s="4" t="n">
+      <c r="O9" s="4" t="n">
         <v>30</v>
       </c>
     </row>
@@ -482,27 +497,30 @@
         <v>5000</v>
       </c>
       <c r="G10" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="H10" s="4" t="n">
         <v>70</v>
       </c>
-      <c r="H10" s="4" t="n">
+      <c r="I10" s="4" t="n">
         <v>80</v>
       </c>
-      <c r="I10" s="4" t="n">
+      <c r="J10" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="J10" s="4" t="n">
+      <c r="K10" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="K10" s="4" t="n">
+      <c r="L10" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="L10" s="4" t="n">
+      <c r="M10" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="M10" s="4" t="n">
+      <c r="N10" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="N10" s="4" t="n">
+      <c r="O10" s="4" t="n">
         <v>40</v>
       </c>
     </row>
@@ -523,27 +541,30 @@
         <v>5000</v>
       </c>
       <c r="G11" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="H11" s="4" t="n">
         <v>90</v>
       </c>
-      <c r="H11" s="4" t="n">
+      <c r="I11" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="I11" s="4" t="n">
+      <c r="J11" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="J11" s="4" t="n">
+      <c r="K11" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="K11" s="4" t="n">
+      <c r="L11" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="L11" s="4" t="n">
+      <c r="M11" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="M11" s="4" t="n">
+      <c r="N11" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="N11" s="4" t="n">
+      <c r="O11" s="4" t="n">
         <v>50</v>
       </c>
     </row>
@@ -564,27 +585,30 @@
         <v>5000</v>
       </c>
       <c r="G12" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="H12" s="4" t="n">
         <v>110</v>
       </c>
-      <c r="H12" s="4" t="n">
+      <c r="I12" s="4" t="n">
         <v>120</v>
       </c>
-      <c r="I12" s="4" t="n">
+      <c r="J12" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="J12" s="4" t="n">
+      <c r="K12" s="4" t="n">
         <v>60</v>
       </c>
-      <c r="K12" s="4" t="n">
+      <c r="L12" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="L12" s="4" t="n">
+      <c r="M12" s="4" t="n">
         <v>60</v>
       </c>
-      <c r="M12" s="4" t="n">
+      <c r="N12" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="N12" s="4" t="n">
+      <c r="O12" s="4" t="n">
         <v>60</v>
       </c>
     </row>
@@ -605,27 +629,30 @@
         <v>5000</v>
       </c>
       <c r="G13" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="H13" s="4" t="n">
         <v>130</v>
       </c>
-      <c r="H13" s="4" t="n">
+      <c r="I13" s="4" t="n">
         <v>140</v>
       </c>
-      <c r="I13" s="4" t="n">
+      <c r="J13" s="4" t="n">
         <v>60</v>
       </c>
-      <c r="J13" s="4" t="n">
+      <c r="K13" s="4" t="n">
         <v>70</v>
       </c>
-      <c r="K13" s="4" t="n">
+      <c r="L13" s="4" t="n">
         <v>60</v>
       </c>
-      <c r="L13" s="4" t="n">
+      <c r="M13" s="4" t="n">
         <v>70</v>
       </c>
-      <c r="M13" s="4" t="n">
+      <c r="N13" s="4" t="n">
         <v>60</v>
       </c>
-      <c r="N13" s="4" t="n">
+      <c r="O13" s="4" t="n">
         <v>70</v>
       </c>
     </row>
@@ -646,27 +673,30 @@
         <v>5000</v>
       </c>
       <c r="G14" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="H14" s="4" t="n">
         <v>150</v>
       </c>
-      <c r="H14" s="4" t="n">
+      <c r="I14" s="4" t="n">
         <v>160</v>
       </c>
-      <c r="I14" s="4" t="n">
+      <c r="J14" s="4" t="n">
         <v>70</v>
       </c>
-      <c r="J14" s="4" t="n">
+      <c r="K14" s="4" t="n">
         <v>80</v>
       </c>
-      <c r="K14" s="4" t="n">
+      <c r="L14" s="4" t="n">
         <v>70</v>
       </c>
-      <c r="L14" s="4" t="n">
+      <c r="M14" s="4" t="n">
         <v>80</v>
       </c>
-      <c r="M14" s="4" t="n">
+      <c r="N14" s="4" t="n">
         <v>70</v>
       </c>
-      <c r="N14" s="4" t="n">
+      <c r="O14" s="4" t="n">
         <v>80</v>
       </c>
     </row>
@@ -684,6 +714,7 @@
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="4"/>
@@ -699,6 +730,7 @@
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="4"/>
@@ -714,6 +746,7 @@
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="4"/>
@@ -729,6 +762,7 @@
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="4"/>
@@ -744,6 +778,7 @@
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="4"/>
@@ -759,6 +794,7 @@
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="4"/>
@@ -774,6 +810,7 @@
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="4"/>
@@ -789,6 +826,7 @@
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="4"/>
@@ -804,6 +842,7 @@
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="4"/>
@@ -819,6 +858,7 @@
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="4"/>
@@ -834,6 +874,7 @@
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="4"/>
@@ -849,6 +890,7 @@
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="4"/>
@@ -864,6 +906,7 @@
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="4"/>
@@ -879,6 +922,7 @@
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Master/MasterData/AnpanPopArea.xlsx
+++ b/Master/MasterData/AnpanPopArea.xlsx
@@ -283,7 +283,7 @@
   <dimension ref="A3:O28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -403,7 +403,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="F8" s="4" t="n">
         <v>5000</v>
@@ -447,7 +447,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="F9" s="4" t="n">
         <v>5000</v>
@@ -491,7 +491,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="F10" s="4" t="n">
         <v>5000</v>
@@ -535,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="F11" s="4" t="n">
         <v>5000</v>
@@ -579,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="4" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="F12" s="4" t="n">
         <v>5000</v>
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="4" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="F13" s="4" t="n">
         <v>5000</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="4" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="F14" s="4" t="n">
         <v>5000</v>

--- a/Master/MasterData/AnpanPopArea.xlsx
+++ b/Master/MasterData/AnpanPopArea.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t xml:space="preserve">$AUTO_KEY</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z</t>
   </si>
   <si>
     <t xml:space="preserve">Range</t>
@@ -280,7 +283,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:O28"/>
+  <dimension ref="A3:P28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
@@ -344,54 +347,60 @@
       <c r="O6" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="P6" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="4" t="n">
         <v>2</v>
@@ -403,36 +412,39 @@
         <v>0</v>
       </c>
       <c r="E8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4" t="n">
         <v>2500</v>
       </c>
-      <c r="F8" s="4" t="n">
+      <c r="G8" s="4" t="n">
         <v>5000</v>
       </c>
-      <c r="G8" s="4" t="n">
+      <c r="H8" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="H8" s="4" t="n">
+      <c r="I8" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="I8" s="4" t="n">
+      <c r="J8" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="J8" s="4" t="n">
+      <c r="K8" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="K8" s="4" t="n">
+      <c r="L8" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="L8" s="4" t="n">
+      <c r="M8" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="M8" s="4" t="n">
+      <c r="N8" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="N8" s="4" t="n">
+      <c r="O8" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="O8" s="4" t="n">
+      <c r="P8" s="4" t="n">
         <v>20</v>
       </c>
     </row>
@@ -447,36 +459,39 @@
         <v>0</v>
       </c>
       <c r="E9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4" t="n">
         <v>2500</v>
       </c>
-      <c r="F9" s="4" t="n">
+      <c r="G9" s="4" t="n">
         <v>5000</v>
       </c>
-      <c r="G9" s="4" t="n">
+      <c r="H9" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="H9" s="4" t="n">
+      <c r="I9" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="I9" s="4" t="n">
+      <c r="J9" s="4" t="n">
         <v>60</v>
       </c>
-      <c r="J9" s="4" t="n">
+      <c r="K9" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K9" s="4" t="n">
+      <c r="L9" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="L9" s="4" t="n">
+      <c r="M9" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="M9" s="4" t="n">
+      <c r="N9" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="N9" s="4" t="n">
+      <c r="O9" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="O9" s="4" t="n">
+      <c r="P9" s="4" t="n">
         <v>30</v>
       </c>
     </row>
@@ -491,36 +506,39 @@
         <v>0</v>
       </c>
       <c r="E10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4" t="n">
         <v>2500</v>
       </c>
-      <c r="F10" s="4" t="n">
+      <c r="G10" s="4" t="n">
         <v>5000</v>
       </c>
-      <c r="G10" s="4" t="n">
+      <c r="H10" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="H10" s="4" t="n">
+      <c r="I10" s="4" t="n">
         <v>70</v>
       </c>
-      <c r="I10" s="4" t="n">
+      <c r="J10" s="4" t="n">
         <v>80</v>
       </c>
-      <c r="J10" s="4" t="n">
+      <c r="K10" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K10" s="4" t="n">
+      <c r="L10" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="L10" s="4" t="n">
+      <c r="M10" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="M10" s="4" t="n">
+      <c r="N10" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="N10" s="4" t="n">
+      <c r="O10" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="O10" s="4" t="n">
+      <c r="P10" s="4" t="n">
         <v>40</v>
       </c>
     </row>
@@ -535,36 +553,39 @@
         <v>0</v>
       </c>
       <c r="E11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4" t="n">
         <v>2500</v>
       </c>
-      <c r="F11" s="4" t="n">
+      <c r="G11" s="4" t="n">
         <v>5000</v>
       </c>
-      <c r="G11" s="4" t="n">
+      <c r="H11" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="H11" s="4" t="n">
+      <c r="I11" s="4" t="n">
         <v>90</v>
       </c>
-      <c r="I11" s="4" t="n">
+      <c r="J11" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="J11" s="4" t="n">
+      <c r="K11" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="K11" s="4" t="n">
+      <c r="L11" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="L11" s="4" t="n">
+      <c r="M11" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="M11" s="4" t="n">
+      <c r="N11" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="N11" s="4" t="n">
+      <c r="O11" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="O11" s="4" t="n">
+      <c r="P11" s="4" t="n">
         <v>50</v>
       </c>
     </row>
@@ -579,36 +600,39 @@
         <v>0</v>
       </c>
       <c r="E12" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4" t="n">
         <v>2500</v>
       </c>
-      <c r="F12" s="4" t="n">
+      <c r="G12" s="4" t="n">
         <v>5000</v>
       </c>
-      <c r="G12" s="4" t="n">
+      <c r="H12" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="H12" s="4" t="n">
+      <c r="I12" s="4" t="n">
         <v>110</v>
       </c>
-      <c r="I12" s="4" t="n">
+      <c r="J12" s="4" t="n">
         <v>120</v>
       </c>
-      <c r="J12" s="4" t="n">
+      <c r="K12" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="K12" s="4" t="n">
+      <c r="L12" s="4" t="n">
         <v>60</v>
       </c>
-      <c r="L12" s="4" t="n">
+      <c r="M12" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="M12" s="4" t="n">
+      <c r="N12" s="4" t="n">
         <v>60</v>
       </c>
-      <c r="N12" s="4" t="n">
+      <c r="O12" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="O12" s="4" t="n">
+      <c r="P12" s="4" t="n">
         <v>60</v>
       </c>
     </row>
@@ -623,36 +647,39 @@
         <v>0</v>
       </c>
       <c r="E13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4" t="n">
         <v>2500</v>
       </c>
-      <c r="F13" s="4" t="n">
+      <c r="G13" s="4" t="n">
         <v>5000</v>
       </c>
-      <c r="G13" s="4" t="n">
+      <c r="H13" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="H13" s="4" t="n">
+      <c r="I13" s="4" t="n">
         <v>130</v>
       </c>
-      <c r="I13" s="4" t="n">
+      <c r="J13" s="4" t="n">
         <v>140</v>
       </c>
-      <c r="J13" s="4" t="n">
+      <c r="K13" s="4" t="n">
         <v>60</v>
       </c>
-      <c r="K13" s="4" t="n">
+      <c r="L13" s="4" t="n">
         <v>70</v>
       </c>
-      <c r="L13" s="4" t="n">
+      <c r="M13" s="4" t="n">
         <v>60</v>
       </c>
-      <c r="M13" s="4" t="n">
+      <c r="N13" s="4" t="n">
         <v>70</v>
       </c>
-      <c r="N13" s="4" t="n">
+      <c r="O13" s="4" t="n">
         <v>60</v>
       </c>
-      <c r="O13" s="4" t="n">
+      <c r="P13" s="4" t="n">
         <v>70</v>
       </c>
     </row>
@@ -667,36 +694,39 @@
         <v>0</v>
       </c>
       <c r="E14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4" t="n">
         <v>2500</v>
       </c>
-      <c r="F14" s="4" t="n">
+      <c r="G14" s="4" t="n">
         <v>5000</v>
       </c>
-      <c r="G14" s="4" t="n">
+      <c r="H14" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="H14" s="4" t="n">
+      <c r="I14" s="4" t="n">
         <v>150</v>
       </c>
-      <c r="I14" s="4" t="n">
+      <c r="J14" s="4" t="n">
         <v>160</v>
       </c>
-      <c r="J14" s="4" t="n">
+      <c r="K14" s="4" t="n">
         <v>70</v>
       </c>
-      <c r="K14" s="4" t="n">
+      <c r="L14" s="4" t="n">
         <v>80</v>
       </c>
-      <c r="L14" s="4" t="n">
+      <c r="M14" s="4" t="n">
         <v>70</v>
       </c>
-      <c r="M14" s="4" t="n">
+      <c r="N14" s="4" t="n">
         <v>80</v>
       </c>
-      <c r="N14" s="4" t="n">
+      <c r="O14" s="4" t="n">
         <v>70</v>
       </c>
-      <c r="O14" s="4" t="n">
+      <c r="P14" s="4" t="n">
         <v>80</v>
       </c>
     </row>
@@ -715,6 +745,7 @@
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="4"/>
@@ -731,6 +762,7 @@
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="4"/>
@@ -747,6 +779,7 @@
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="4"/>
@@ -763,6 +796,7 @@
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="4"/>
@@ -779,6 +813,7 @@
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="4"/>
@@ -795,6 +830,7 @@
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="4"/>
@@ -811,6 +847,7 @@
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="4"/>
@@ -827,6 +864,7 @@
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="4"/>
@@ -843,6 +881,7 @@
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="4"/>
@@ -859,6 +898,7 @@
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="4"/>
@@ -875,6 +915,7 @@
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="4"/>
@@ -891,6 +932,7 @@
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="4"/>
@@ -907,6 +949,7 @@
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="4"/>
@@ -923,6 +966,7 @@
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Master/MasterData/AnpanPopArea.xlsx
+++ b/Master/MasterData/AnpanPopArea.xlsx
@@ -412,7 +412,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="F8" s="4" t="n">
         <v>2500</v>
@@ -459,7 +459,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="F9" s="4" t="n">
         <v>2500</v>
@@ -506,7 +506,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="F10" s="4" t="n">
         <v>2500</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="F11" s="4" t="n">
         <v>2500</v>
@@ -600,7 +600,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="4" t="n">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="F12" s="4" t="n">
         <v>2500</v>
@@ -647,7 +647,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="4" t="n">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="F13" s="4" t="n">
         <v>2500</v>
@@ -694,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="4" t="n">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="F14" s="4" t="n">
         <v>2500</v>

--- a/Master/MasterData/AnpanPopArea.xlsx
+++ b/Master/MasterData/AnpanPopArea.xlsx
@@ -185,7 +185,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -203,6 +203,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -283,15 +287,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:P28"/>
+  <dimension ref="A3:P63"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K38" activeCellId="0" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="12.83"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -406,16 +412,16 @@
         <v>2</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>0</v>
+        <v>5770</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>-40</v>
+        <v>80</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="G8" s="4" t="n">
         <v>5000</v>
@@ -450,19 +456,19 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>0</v>
+        <v>4730</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0</v>
+        <v>460</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>-40</v>
+        <v>80</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="G9" s="4" t="n">
         <v>5000</v>
@@ -471,45 +477,45 @@
         <v>100</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>0</v>
+        <v>2990</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>-40</v>
+        <v>80</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="G10" s="4" t="n">
         <v>5000</v>
@@ -518,45 +524,45 @@
         <v>100</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>0</v>
+        <v>1920</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>0</v>
+        <v>920</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>-40</v>
+        <v>80</v>
       </c>
       <c r="F11" s="4" t="n">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="G11" s="4" t="n">
         <v>5000</v>
@@ -565,45 +571,45 @@
         <v>100</v>
       </c>
       <c r="I11" s="4" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="J11" s="4" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="K11" s="4" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="L11" s="4" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="M11" s="4" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="N11" s="4" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="P11" s="4" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C12" s="4" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D12" s="4" t="n">
-        <v>0</v>
+        <v>1270</v>
       </c>
       <c r="E12" s="4" t="n">
-        <v>-40</v>
+        <v>80</v>
       </c>
       <c r="F12" s="4" t="n">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="G12" s="4" t="n">
         <v>5000</v>
@@ -612,45 +618,45 @@
         <v>100</v>
       </c>
       <c r="I12" s="4" t="n">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="J12" s="4" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="K12" s="4" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="L12" s="4" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="M12" s="4" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="N12" s="4" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="O12" s="4" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="P12" s="4" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>0</v>
+        <v>-1120</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>0</v>
+        <v>1580</v>
       </c>
       <c r="E13" s="4" t="n">
-        <v>-40</v>
+        <v>80</v>
       </c>
       <c r="F13" s="4" t="n">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="G13" s="4" t="n">
         <v>5000</v>
@@ -659,314 +665,2379 @@
         <v>100</v>
       </c>
       <c r="I13" s="4" t="n">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="J13" s="4" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="K13" s="4" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="L13" s="4" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="M13" s="4" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="N13" s="4" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="P13" s="4" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>-2480</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>1820</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="F14" s="4" t="n">
+        <v>500</v>
+      </c>
+      <c r="G14" s="4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H14" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I14" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="J14" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="K14" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="L14" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="M14" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="N14" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="O14" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="P14" s="4" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>-4110</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>2080</v>
+      </c>
+      <c r="E15" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="F15" s="4" t="n">
+        <v>500</v>
+      </c>
+      <c r="G15" s="4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H15" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I15" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="J15" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="K15" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="L15" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="M15" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="N15" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="O15" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="P15" s="4" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" s="4" t="n">
+        <v>5770</v>
+      </c>
+      <c r="D16" s="4" t="n">
+        <v>90</v>
+      </c>
+      <c r="E16" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="F16" s="4" t="n">
+        <v>500</v>
+      </c>
+      <c r="G16" s="4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H16" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I16" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="J16" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="K16" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="L16" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="M16" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="N16" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="O16" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="P16" s="4" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" s="4" t="n">
+        <v>4730</v>
+      </c>
+      <c r="D17" s="4" t="n">
+        <v>460</v>
+      </c>
+      <c r="E17" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="F17" s="4" t="n">
+        <v>500</v>
+      </c>
+      <c r="G17" s="4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H17" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I17" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="J17" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="K17" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="L17" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="M17" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="N17" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="O17" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="P17" s="4" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" s="4" t="n">
+        <v>2990</v>
+      </c>
+      <c r="D18" s="4" t="n">
+        <v>700</v>
+      </c>
+      <c r="E18" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="F18" s="4" t="n">
+        <v>500</v>
+      </c>
+      <c r="G18" s="4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H18" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I18" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="J18" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="K18" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="L18" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="M18" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="N18" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="O18" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="P18" s="4" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" s="4" t="n">
+        <v>1920</v>
+      </c>
+      <c r="D19" s="4" t="n">
+        <v>920</v>
+      </c>
+      <c r="E19" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="F19" s="4" t="n">
+        <v>500</v>
+      </c>
+      <c r="G19" s="4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H19" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I19" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="J19" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="K19" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="L19" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="M19" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="N19" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="O19" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="P19" s="4" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="D20" s="4" t="n">
+        <v>1270</v>
+      </c>
+      <c r="E20" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="F20" s="4" t="n">
+        <v>500</v>
+      </c>
+      <c r="G20" s="4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H20" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I20" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="J20" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="K20" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="L20" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="M20" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="N20" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="O20" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="P20" s="4" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" s="4" t="n">
+        <v>-1120</v>
+      </c>
+      <c r="D21" s="4" t="n">
+        <v>1580</v>
+      </c>
+      <c r="E21" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="F21" s="4" t="n">
+        <v>500</v>
+      </c>
+      <c r="G21" s="4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H21" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I21" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="J21" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="K21" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="L21" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="M21" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="N21" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="O21" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="P21" s="4" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C22" s="4" t="n">
+        <v>-2480</v>
+      </c>
+      <c r="D22" s="4" t="n">
+        <v>1820</v>
+      </c>
+      <c r="E22" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="F22" s="4" t="n">
+        <v>500</v>
+      </c>
+      <c r="G22" s="4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H22" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I22" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="J22" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="K22" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="L22" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="M22" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="N22" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="O22" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="P22" s="4" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C23" s="4" t="n">
+        <v>-4110</v>
+      </c>
+      <c r="D23" s="4" t="n">
+        <v>2080</v>
+      </c>
+      <c r="E23" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="F23" s="4" t="n">
+        <v>500</v>
+      </c>
+      <c r="G23" s="4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H23" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I23" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="J23" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="K23" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="L23" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="M23" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="N23" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="O23" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="P23" s="4" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C24" s="4" t="n">
+        <v>5770</v>
+      </c>
+      <c r="D24" s="4" t="n">
+        <v>90</v>
+      </c>
+      <c r="E24" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="F24" s="4" t="n">
+        <v>500</v>
+      </c>
+      <c r="G24" s="4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H24" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I24" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="J24" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="K24" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="L24" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="M24" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="N24" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="O24" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="P24" s="4" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C25" s="4" t="n">
+        <v>4730</v>
+      </c>
+      <c r="D25" s="4" t="n">
+        <v>460</v>
+      </c>
+      <c r="E25" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="F25" s="4" t="n">
+        <v>500</v>
+      </c>
+      <c r="G25" s="4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H25" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I25" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="J25" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="K25" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="L25" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="M25" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="N25" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="O25" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="P25" s="4" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C26" s="4" t="n">
+        <v>2990</v>
+      </c>
+      <c r="D26" s="4" t="n">
+        <v>700</v>
+      </c>
+      <c r="E26" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="F26" s="4" t="n">
+        <v>500</v>
+      </c>
+      <c r="G26" s="4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H26" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I26" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="J26" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="K26" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="L26" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="M26" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="N26" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="O26" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="P26" s="4" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C27" s="4" t="n">
+        <v>1920</v>
+      </c>
+      <c r="D27" s="4" t="n">
+        <v>920</v>
+      </c>
+      <c r="E27" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="F27" s="4" t="n">
+        <v>500</v>
+      </c>
+      <c r="G27" s="4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H27" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I27" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="J27" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="K27" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="L27" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="M27" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="N27" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="O27" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="P27" s="4" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C28" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="D28" s="4" t="n">
+        <v>1270</v>
+      </c>
+      <c r="E28" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="F28" s="4" t="n">
+        <v>500</v>
+      </c>
+      <c r="G28" s="4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H28" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I28" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="J28" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="K28" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="L28" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="M28" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="N28" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="O28" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="P28" s="4" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C29" s="4" t="n">
+        <v>-1120</v>
+      </c>
+      <c r="D29" s="4" t="n">
+        <v>1580</v>
+      </c>
+      <c r="E29" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="F29" s="4" t="n">
+        <v>500</v>
+      </c>
+      <c r="G29" s="4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H29" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I29" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="J29" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="K29" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="L29" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="M29" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="N29" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="O29" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="P29" s="4" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C30" s="4" t="n">
+        <v>-2480</v>
+      </c>
+      <c r="D30" s="4" t="n">
+        <v>1820</v>
+      </c>
+      <c r="E30" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="F30" s="4" t="n">
+        <v>500</v>
+      </c>
+      <c r="G30" s="4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H30" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I30" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="J30" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="K30" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="L30" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="M30" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="N30" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="O30" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="P30" s="4" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C31" s="4" t="n">
+        <v>-4110</v>
+      </c>
+      <c r="D31" s="4" t="n">
+        <v>2080</v>
+      </c>
+      <c r="E31" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="F31" s="4" t="n">
+        <v>500</v>
+      </c>
+      <c r="G31" s="4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H31" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I31" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="J31" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="K31" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="L31" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="M31" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="N31" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="O31" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="P31" s="4" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C32" s="4" t="n">
+        <v>5770</v>
+      </c>
+      <c r="D32" s="4" t="n">
+        <v>90</v>
+      </c>
+      <c r="E32" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="F32" s="4" t="n">
+        <v>500</v>
+      </c>
+      <c r="G32" s="4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H32" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I32" s="4" t="n">
+        <v>90</v>
+      </c>
+      <c r="J32" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="K32" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="L32" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="M32" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="N32" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="O32" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="P32" s="4" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C33" s="4" t="n">
+        <v>4730</v>
+      </c>
+      <c r="D33" s="4" t="n">
+        <v>460</v>
+      </c>
+      <c r="E33" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="F33" s="4" t="n">
+        <v>500</v>
+      </c>
+      <c r="G33" s="4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H33" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I33" s="4" t="n">
+        <v>90</v>
+      </c>
+      <c r="J33" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="K33" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="L33" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="M33" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="N33" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="O33" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="P33" s="4" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C34" s="4" t="n">
+        <v>2990</v>
+      </c>
+      <c r="D34" s="4" t="n">
+        <v>700</v>
+      </c>
+      <c r="E34" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="F34" s="4" t="n">
+        <v>500</v>
+      </c>
+      <c r="G34" s="4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H34" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I34" s="4" t="n">
+        <v>90</v>
+      </c>
+      <c r="J34" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="K34" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="L34" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="M34" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="N34" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="O34" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="P34" s="4" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C35" s="4" t="n">
+        <v>1920</v>
+      </c>
+      <c r="D35" s="4" t="n">
+        <v>920</v>
+      </c>
+      <c r="E35" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="F35" s="4" t="n">
+        <v>500</v>
+      </c>
+      <c r="G35" s="4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H35" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I35" s="4" t="n">
+        <v>90</v>
+      </c>
+      <c r="J35" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="K35" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="L35" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="M35" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="N35" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="O35" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="P35" s="4" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C36" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="D36" s="4" t="n">
+        <v>1270</v>
+      </c>
+      <c r="E36" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="F36" s="4" t="n">
+        <v>500</v>
+      </c>
+      <c r="G36" s="4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H36" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I36" s="4" t="n">
+        <v>90</v>
+      </c>
+      <c r="J36" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="K36" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="L36" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="M36" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="N36" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="O36" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="P36" s="4" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C37" s="4" t="n">
+        <v>-1120</v>
+      </c>
+      <c r="D37" s="4" t="n">
+        <v>1580</v>
+      </c>
+      <c r="E37" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="F37" s="4" t="n">
+        <v>500</v>
+      </c>
+      <c r="G37" s="4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H37" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I37" s="4" t="n">
+        <v>90</v>
+      </c>
+      <c r="J37" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="K37" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="L37" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="M37" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="N37" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="O37" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="P37" s="4" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C38" s="4" t="n">
+        <v>-2480</v>
+      </c>
+      <c r="D38" s="4" t="n">
+        <v>1820</v>
+      </c>
+      <c r="E38" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="F38" s="4" t="n">
+        <v>500</v>
+      </c>
+      <c r="G38" s="4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H38" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I38" s="4" t="n">
+        <v>90</v>
+      </c>
+      <c r="J38" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="K38" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="L38" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="M38" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="N38" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="O38" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="P38" s="4" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C39" s="4" t="n">
+        <v>-4110</v>
+      </c>
+      <c r="D39" s="4" t="n">
+        <v>2080</v>
+      </c>
+      <c r="E39" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="F39" s="4" t="n">
+        <v>500</v>
+      </c>
+      <c r="G39" s="4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H39" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I39" s="4" t="n">
+        <v>90</v>
+      </c>
+      <c r="J39" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="K39" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="L39" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="M39" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="N39" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="O39" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="P39" s="4" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C40" s="4" t="n">
+        <v>5770</v>
+      </c>
+      <c r="D40" s="4" t="n">
+        <v>90</v>
+      </c>
+      <c r="E40" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="F40" s="4" t="n">
+        <v>500</v>
+      </c>
+      <c r="G40" s="4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H40" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I40" s="4" t="n">
+        <v>110</v>
+      </c>
+      <c r="J40" s="4" t="n">
+        <v>120</v>
+      </c>
+      <c r="K40" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="L40" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="M40" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="N40" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="O40" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="P40" s="4" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C41" s="4" t="n">
+        <v>4730</v>
+      </c>
+      <c r="D41" s="4" t="n">
+        <v>460</v>
+      </c>
+      <c r="E41" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="F41" s="4" t="n">
+        <v>500</v>
+      </c>
+      <c r="G41" s="4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H41" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I41" s="4" t="n">
+        <v>110</v>
+      </c>
+      <c r="J41" s="4" t="n">
+        <v>120</v>
+      </c>
+      <c r="K41" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="L41" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="M41" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="N41" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="O41" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="P41" s="4" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C42" s="4" t="n">
+        <v>2990</v>
+      </c>
+      <c r="D42" s="4" t="n">
+        <v>700</v>
+      </c>
+      <c r="E42" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="F42" s="4" t="n">
+        <v>500</v>
+      </c>
+      <c r="G42" s="4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H42" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I42" s="4" t="n">
+        <v>110</v>
+      </c>
+      <c r="J42" s="4" t="n">
+        <v>120</v>
+      </c>
+      <c r="K42" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="L42" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="M42" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="N42" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="O42" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="P42" s="4" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C43" s="4" t="n">
+        <v>1920</v>
+      </c>
+      <c r="D43" s="4" t="n">
+        <v>920</v>
+      </c>
+      <c r="E43" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="F43" s="4" t="n">
+        <v>500</v>
+      </c>
+      <c r="G43" s="4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H43" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I43" s="4" t="n">
+        <v>110</v>
+      </c>
+      <c r="J43" s="4" t="n">
+        <v>120</v>
+      </c>
+      <c r="K43" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="L43" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="M43" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="N43" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="O43" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="P43" s="4" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C44" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="D44" s="4" t="n">
+        <v>1270</v>
+      </c>
+      <c r="E44" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="F44" s="4" t="n">
+        <v>500</v>
+      </c>
+      <c r="G44" s="4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H44" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I44" s="4" t="n">
+        <v>110</v>
+      </c>
+      <c r="J44" s="4" t="n">
+        <v>120</v>
+      </c>
+      <c r="K44" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="L44" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="M44" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="N44" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="O44" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="P44" s="4" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C45" s="4" t="n">
+        <v>-1120</v>
+      </c>
+      <c r="D45" s="4" t="n">
+        <v>1580</v>
+      </c>
+      <c r="E45" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="F45" s="4" t="n">
+        <v>500</v>
+      </c>
+      <c r="G45" s="4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H45" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I45" s="4" t="n">
+        <v>110</v>
+      </c>
+      <c r="J45" s="4" t="n">
+        <v>120</v>
+      </c>
+      <c r="K45" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="L45" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="M45" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="N45" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="O45" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="P45" s="4" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C46" s="4" t="n">
+        <v>-2480</v>
+      </c>
+      <c r="D46" s="4" t="n">
+        <v>1820</v>
+      </c>
+      <c r="E46" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="F46" s="4" t="n">
+        <v>500</v>
+      </c>
+      <c r="G46" s="4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H46" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I46" s="4" t="n">
+        <v>110</v>
+      </c>
+      <c r="J46" s="4" t="n">
+        <v>120</v>
+      </c>
+      <c r="K46" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="L46" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="M46" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="N46" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="O46" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="P46" s="4" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C47" s="4" t="n">
+        <v>-4110</v>
+      </c>
+      <c r="D47" s="4" t="n">
+        <v>2080</v>
+      </c>
+      <c r="E47" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="F47" s="4" t="n">
+        <v>500</v>
+      </c>
+      <c r="G47" s="4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H47" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I47" s="4" t="n">
+        <v>110</v>
+      </c>
+      <c r="J47" s="4" t="n">
+        <v>120</v>
+      </c>
+      <c r="K47" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="L47" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="M47" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="N47" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="O47" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="P47" s="4" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C48" s="4" t="n">
+        <v>5770</v>
+      </c>
+      <c r="D48" s="4" t="n">
+        <v>90</v>
+      </c>
+      <c r="E48" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="F48" s="4" t="n">
+        <v>500</v>
+      </c>
+      <c r="G48" s="4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H48" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I48" s="4" t="n">
+        <v>130</v>
+      </c>
+      <c r="J48" s="4" t="n">
+        <v>140</v>
+      </c>
+      <c r="K48" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="L48" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="M48" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="N48" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="O48" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="P48" s="4" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C49" s="4" t="n">
+        <v>4730</v>
+      </c>
+      <c r="D49" s="4" t="n">
+        <v>460</v>
+      </c>
+      <c r="E49" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="F49" s="4" t="n">
+        <v>500</v>
+      </c>
+      <c r="G49" s="4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H49" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I49" s="4" t="n">
+        <v>130</v>
+      </c>
+      <c r="J49" s="4" t="n">
+        <v>140</v>
+      </c>
+      <c r="K49" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="L49" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="M49" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="N49" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="O49" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="P49" s="4" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C50" s="4" t="n">
+        <v>2990</v>
+      </c>
+      <c r="D50" s="4" t="n">
+        <v>700</v>
+      </c>
+      <c r="E50" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="F50" s="4" t="n">
+        <v>500</v>
+      </c>
+      <c r="G50" s="4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H50" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I50" s="4" t="n">
+        <v>130</v>
+      </c>
+      <c r="J50" s="4" t="n">
+        <v>140</v>
+      </c>
+      <c r="K50" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="L50" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="M50" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="N50" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="O50" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="P50" s="4" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C51" s="4" t="n">
+        <v>1920</v>
+      </c>
+      <c r="D51" s="4" t="n">
+        <v>920</v>
+      </c>
+      <c r="E51" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="F51" s="4" t="n">
+        <v>500</v>
+      </c>
+      <c r="G51" s="4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H51" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I51" s="4" t="n">
+        <v>130</v>
+      </c>
+      <c r="J51" s="4" t="n">
+        <v>140</v>
+      </c>
+      <c r="K51" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="L51" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="M51" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="N51" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="O51" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="P51" s="4" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C52" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="D52" s="4" t="n">
+        <v>1270</v>
+      </c>
+      <c r="E52" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="F52" s="4" t="n">
+        <v>500</v>
+      </c>
+      <c r="G52" s="4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H52" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I52" s="4" t="n">
+        <v>130</v>
+      </c>
+      <c r="J52" s="4" t="n">
+        <v>140</v>
+      </c>
+      <c r="K52" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="L52" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="M52" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="N52" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="O52" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="P52" s="4" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C53" s="4" t="n">
+        <v>-1120</v>
+      </c>
+      <c r="D53" s="4" t="n">
+        <v>1580</v>
+      </c>
+      <c r="E53" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="F53" s="4" t="n">
+        <v>500</v>
+      </c>
+      <c r="G53" s="4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H53" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I53" s="4" t="n">
+        <v>130</v>
+      </c>
+      <c r="J53" s="4" t="n">
+        <v>140</v>
+      </c>
+      <c r="K53" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="L53" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="M53" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="N53" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="O53" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="P53" s="4" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C54" s="4" t="n">
+        <v>-2480</v>
+      </c>
+      <c r="D54" s="4" t="n">
+        <v>1820</v>
+      </c>
+      <c r="E54" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="F54" s="4" t="n">
+        <v>500</v>
+      </c>
+      <c r="G54" s="4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H54" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I54" s="4" t="n">
+        <v>130</v>
+      </c>
+      <c r="J54" s="4" t="n">
+        <v>140</v>
+      </c>
+      <c r="K54" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="L54" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="M54" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="N54" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="O54" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="P54" s="4" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C55" s="4" t="n">
+        <v>-4110</v>
+      </c>
+      <c r="D55" s="4" t="n">
+        <v>2080</v>
+      </c>
+      <c r="E55" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="F55" s="4" t="n">
+        <v>500</v>
+      </c>
+      <c r="G55" s="4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H55" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I55" s="4" t="n">
+        <v>130</v>
+      </c>
+      <c r="J55" s="4" t="n">
+        <v>140</v>
+      </c>
+      <c r="K55" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="L55" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="M55" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="N55" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="O55" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="P55" s="4" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="C14" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="4" t="n">
-        <v>-40</v>
-      </c>
-      <c r="F14" s="4" t="n">
-        <v>2500</v>
-      </c>
-      <c r="G14" s="4" t="n">
-        <v>5000</v>
-      </c>
-      <c r="H14" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" s="4" t="n">
+      <c r="C56" s="4" t="n">
+        <v>5770</v>
+      </c>
+      <c r="D56" s="4" t="n">
+        <v>90</v>
+      </c>
+      <c r="E56" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="F56" s="4" t="n">
+        <v>500</v>
+      </c>
+      <c r="G56" s="4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H56" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I56" s="4" t="n">
         <v>150</v>
       </c>
-      <c r="J14" s="4" t="n">
+      <c r="J56" s="4" t="n">
         <v>160</v>
       </c>
-      <c r="K14" s="4" t="n">
-        <v>70</v>
-      </c>
-      <c r="L14" s="4" t="n">
-        <v>80</v>
-      </c>
-      <c r="M14" s="4" t="n">
-        <v>70</v>
-      </c>
-      <c r="N14" s="4" t="n">
-        <v>80</v>
-      </c>
-      <c r="O14" s="4" t="n">
-        <v>70</v>
-      </c>
-      <c r="P14" s="4" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
+      <c r="K56" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="L56" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="M56" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="N56" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="O56" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="P56" s="4" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="C57" s="4" t="n">
+        <v>4730</v>
+      </c>
+      <c r="D57" s="4" t="n">
+        <v>460</v>
+      </c>
+      <c r="E57" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="F57" s="4" t="n">
+        <v>500</v>
+      </c>
+      <c r="G57" s="4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H57" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I57" s="4" t="n">
+        <v>150</v>
+      </c>
+      <c r="J57" s="4" t="n">
+        <v>160</v>
+      </c>
+      <c r="K57" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="L57" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="M57" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="N57" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="O57" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="P57" s="4" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="C58" s="4" t="n">
+        <v>2990</v>
+      </c>
+      <c r="D58" s="4" t="n">
+        <v>700</v>
+      </c>
+      <c r="E58" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="F58" s="4" t="n">
+        <v>500</v>
+      </c>
+      <c r="G58" s="4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H58" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I58" s="4" t="n">
+        <v>150</v>
+      </c>
+      <c r="J58" s="4" t="n">
+        <v>160</v>
+      </c>
+      <c r="K58" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="L58" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="M58" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="N58" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="O58" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="P58" s="4" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="C59" s="4" t="n">
+        <v>1920</v>
+      </c>
+      <c r="D59" s="4" t="n">
+        <v>920</v>
+      </c>
+      <c r="E59" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="F59" s="4" t="n">
+        <v>500</v>
+      </c>
+      <c r="G59" s="4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H59" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I59" s="4" t="n">
+        <v>150</v>
+      </c>
+      <c r="J59" s="4" t="n">
+        <v>160</v>
+      </c>
+      <c r="K59" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="L59" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="M59" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="N59" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="O59" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="P59" s="4" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="C60" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="D60" s="4" t="n">
+        <v>1270</v>
+      </c>
+      <c r="E60" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="F60" s="4" t="n">
+        <v>500</v>
+      </c>
+      <c r="G60" s="4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H60" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I60" s="4" t="n">
+        <v>150</v>
+      </c>
+      <c r="J60" s="4" t="n">
+        <v>160</v>
+      </c>
+      <c r="K60" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="L60" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="M60" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="N60" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="O60" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="P60" s="4" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="C61" s="4" t="n">
+        <v>-1120</v>
+      </c>
+      <c r="D61" s="4" t="n">
+        <v>1580</v>
+      </c>
+      <c r="E61" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="F61" s="4" t="n">
+        <v>500</v>
+      </c>
+      <c r="G61" s="4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H61" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I61" s="4" t="n">
+        <v>150</v>
+      </c>
+      <c r="J61" s="4" t="n">
+        <v>160</v>
+      </c>
+      <c r="K61" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="L61" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="M61" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="N61" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="O61" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="P61" s="4" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="C62" s="4" t="n">
+        <v>-2480</v>
+      </c>
+      <c r="D62" s="4" t="n">
+        <v>1820</v>
+      </c>
+      <c r="E62" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="F62" s="4" t="n">
+        <v>500</v>
+      </c>
+      <c r="G62" s="4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H62" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I62" s="4" t="n">
+        <v>150</v>
+      </c>
+      <c r="J62" s="4" t="n">
+        <v>160</v>
+      </c>
+      <c r="K62" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="L62" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="M62" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="N62" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="O62" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="P62" s="4" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="C63" s="4" t="n">
+        <v>-4110</v>
+      </c>
+      <c r="D63" s="4" t="n">
+        <v>2080</v>
+      </c>
+      <c r="E63" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="F63" s="4" t="n">
+        <v>500</v>
+      </c>
+      <c r="G63" s="4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H63" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I63" s="4" t="n">
+        <v>150</v>
+      </c>
+      <c r="J63" s="4" t="n">
+        <v>160</v>
+      </c>
+      <c r="K63" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="L63" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="M63" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="N63" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="O63" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="P63" s="4" t="n">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Master/MasterData/AnpanPopArea.xlsx
+++ b/Master/MasterData/AnpanPopArea.xlsx
@@ -289,8 +289,8 @@
   </sheetPr>
   <dimension ref="A3:P63"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K38" activeCellId="0" sqref="K38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H63" activeCellId="0" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -427,7 +427,7 @@
         <v>5000</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I8" s="4" t="n">
         <v>30</v>
@@ -474,7 +474,7 @@
         <v>5000</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I9" s="4" t="n">
         <v>30</v>
@@ -521,7 +521,7 @@
         <v>5000</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I10" s="4" t="n">
         <v>30</v>
@@ -568,7 +568,7 @@
         <v>5000</v>
       </c>
       <c r="H11" s="4" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I11" s="4" t="n">
         <v>30</v>
@@ -615,7 +615,7 @@
         <v>5000</v>
       </c>
       <c r="H12" s="4" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I12" s="4" t="n">
         <v>30</v>
@@ -662,7 +662,7 @@
         <v>5000</v>
       </c>
       <c r="H13" s="4" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I13" s="4" t="n">
         <v>30</v>
@@ -709,7 +709,7 @@
         <v>5000</v>
       </c>
       <c r="H14" s="4" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I14" s="4" t="n">
         <v>30</v>
@@ -756,7 +756,7 @@
         <v>5000</v>
       </c>
       <c r="H15" s="4" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I15" s="4" t="n">
         <v>30</v>
@@ -803,7 +803,7 @@
         <v>5000</v>
       </c>
       <c r="H16" s="4" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I16" s="4" t="n">
         <v>50</v>
@@ -850,7 +850,7 @@
         <v>5000</v>
       </c>
       <c r="H17" s="4" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I17" s="4" t="n">
         <v>50</v>
@@ -897,7 +897,7 @@
         <v>5000</v>
       </c>
       <c r="H18" s="4" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I18" s="4" t="n">
         <v>50</v>
@@ -944,7 +944,7 @@
         <v>5000</v>
       </c>
       <c r="H19" s="4" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I19" s="4" t="n">
         <v>50</v>
@@ -991,7 +991,7 @@
         <v>5000</v>
       </c>
       <c r="H20" s="4" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I20" s="4" t="n">
         <v>50</v>
@@ -1038,7 +1038,7 @@
         <v>5000</v>
       </c>
       <c r="H21" s="4" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I21" s="4" t="n">
         <v>50</v>
@@ -1085,7 +1085,7 @@
         <v>5000</v>
       </c>
       <c r="H22" s="4" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I22" s="4" t="n">
         <v>50</v>
@@ -1132,7 +1132,7 @@
         <v>5000</v>
       </c>
       <c r="H23" s="4" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I23" s="4" t="n">
         <v>50</v>
@@ -1179,7 +1179,7 @@
         <v>5000</v>
       </c>
       <c r="H24" s="4" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I24" s="4" t="n">
         <v>70</v>
@@ -1226,7 +1226,7 @@
         <v>5000</v>
       </c>
       <c r="H25" s="4" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I25" s="4" t="n">
         <v>70</v>
@@ -1273,7 +1273,7 @@
         <v>5000</v>
       </c>
       <c r="H26" s="4" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I26" s="4" t="n">
         <v>70</v>
@@ -1320,7 +1320,7 @@
         <v>5000</v>
       </c>
       <c r="H27" s="4" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I27" s="4" t="n">
         <v>70</v>
@@ -1367,7 +1367,7 @@
         <v>5000</v>
       </c>
       <c r="H28" s="4" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I28" s="4" t="n">
         <v>70</v>
@@ -1414,7 +1414,7 @@
         <v>5000</v>
       </c>
       <c r="H29" s="4" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I29" s="4" t="n">
         <v>70</v>
@@ -1461,7 +1461,7 @@
         <v>5000</v>
       </c>
       <c r="H30" s="4" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I30" s="4" t="n">
         <v>70</v>
@@ -1508,7 +1508,7 @@
         <v>5000</v>
       </c>
       <c r="H31" s="4" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I31" s="4" t="n">
         <v>70</v>
@@ -1555,7 +1555,7 @@
         <v>5000</v>
       </c>
       <c r="H32" s="4" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I32" s="4" t="n">
         <v>90</v>
@@ -1602,7 +1602,7 @@
         <v>5000</v>
       </c>
       <c r="H33" s="4" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I33" s="4" t="n">
         <v>90</v>
@@ -1649,7 +1649,7 @@
         <v>5000</v>
       </c>
       <c r="H34" s="4" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I34" s="4" t="n">
         <v>90</v>
@@ -1696,7 +1696,7 @@
         <v>5000</v>
       </c>
       <c r="H35" s="4" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I35" s="4" t="n">
         <v>90</v>
@@ -1743,7 +1743,7 @@
         <v>5000</v>
       </c>
       <c r="H36" s="4" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I36" s="4" t="n">
         <v>90</v>
@@ -1790,7 +1790,7 @@
         <v>5000</v>
       </c>
       <c r="H37" s="4" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I37" s="4" t="n">
         <v>90</v>
@@ -1837,7 +1837,7 @@
         <v>5000</v>
       </c>
       <c r="H38" s="4" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I38" s="4" t="n">
         <v>90</v>
@@ -1884,7 +1884,7 @@
         <v>5000</v>
       </c>
       <c r="H39" s="4" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I39" s="4" t="n">
         <v>90</v>
@@ -1931,7 +1931,7 @@
         <v>5000</v>
       </c>
       <c r="H40" s="4" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I40" s="4" t="n">
         <v>110</v>
@@ -1978,7 +1978,7 @@
         <v>5000</v>
       </c>
       <c r="H41" s="4" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I41" s="4" t="n">
         <v>110</v>
@@ -2025,7 +2025,7 @@
         <v>5000</v>
       </c>
       <c r="H42" s="4" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I42" s="4" t="n">
         <v>110</v>
@@ -2072,7 +2072,7 @@
         <v>5000</v>
       </c>
       <c r="H43" s="4" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I43" s="4" t="n">
         <v>110</v>
@@ -2119,7 +2119,7 @@
         <v>5000</v>
       </c>
       <c r="H44" s="4" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I44" s="4" t="n">
         <v>110</v>
@@ -2166,7 +2166,7 @@
         <v>5000</v>
       </c>
       <c r="H45" s="4" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I45" s="4" t="n">
         <v>110</v>
@@ -2213,7 +2213,7 @@
         <v>5000</v>
       </c>
       <c r="H46" s="4" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I46" s="4" t="n">
         <v>110</v>
@@ -2260,7 +2260,7 @@
         <v>5000</v>
       </c>
       <c r="H47" s="4" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I47" s="4" t="n">
         <v>110</v>
@@ -2307,7 +2307,7 @@
         <v>5000</v>
       </c>
       <c r="H48" s="4" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I48" s="4" t="n">
         <v>130</v>
@@ -2354,7 +2354,7 @@
         <v>5000</v>
       </c>
       <c r="H49" s="4" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I49" s="4" t="n">
         <v>130</v>
@@ -2401,7 +2401,7 @@
         <v>5000</v>
       </c>
       <c r="H50" s="4" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I50" s="4" t="n">
         <v>130</v>
@@ -2448,7 +2448,7 @@
         <v>5000</v>
       </c>
       <c r="H51" s="4" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I51" s="4" t="n">
         <v>130</v>
@@ -2495,7 +2495,7 @@
         <v>5000</v>
       </c>
       <c r="H52" s="4" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I52" s="4" t="n">
         <v>130</v>
@@ -2542,7 +2542,7 @@
         <v>5000</v>
       </c>
       <c r="H53" s="4" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I53" s="4" t="n">
         <v>130</v>
@@ -2589,7 +2589,7 @@
         <v>5000</v>
       </c>
       <c r="H54" s="4" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I54" s="4" t="n">
         <v>130</v>
@@ -2636,7 +2636,7 @@
         <v>5000</v>
       </c>
       <c r="H55" s="4" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I55" s="4" t="n">
         <v>130</v>
@@ -2683,7 +2683,7 @@
         <v>5000</v>
       </c>
       <c r="H56" s="4" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I56" s="4" t="n">
         <v>150</v>
@@ -2730,7 +2730,7 @@
         <v>5000</v>
       </c>
       <c r="H57" s="4" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I57" s="4" t="n">
         <v>150</v>
@@ -2777,7 +2777,7 @@
         <v>5000</v>
       </c>
       <c r="H58" s="4" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I58" s="4" t="n">
         <v>150</v>
@@ -2824,7 +2824,7 @@
         <v>5000</v>
       </c>
       <c r="H59" s="4" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I59" s="4" t="n">
         <v>150</v>
@@ -2871,7 +2871,7 @@
         <v>5000</v>
       </c>
       <c r="H60" s="4" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I60" s="4" t="n">
         <v>150</v>
@@ -2918,7 +2918,7 @@
         <v>5000</v>
       </c>
       <c r="H61" s="4" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I61" s="4" t="n">
         <v>150</v>
@@ -2965,7 +2965,7 @@
         <v>5000</v>
       </c>
       <c r="H62" s="4" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I62" s="4" t="n">
         <v>150</v>
@@ -3012,7 +3012,7 @@
         <v>5000</v>
       </c>
       <c r="H63" s="4" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I63" s="4" t="n">
         <v>150</v>

--- a/Master/MasterData/AnpanPopArea.xlsx
+++ b/Master/MasterData/AnpanPopArea.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t xml:space="preserve">$AUTO_KEY</t>
   </si>
@@ -49,28 +49,7 @@
     <t xml:space="preserve">MaxCount</t>
   </si>
   <si>
-    <t xml:space="preserve">MinHp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MaxHp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MinAtk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MaxAtk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MinDef</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MaxDef</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MinExp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MaxExp</t>
+    <t xml:space="preserve">PopId</t>
   </si>
   <si>
     <t xml:space="preserve">u32</t>
@@ -287,10 +266,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:P63"/>
+  <dimension ref="A3:I63"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H63" activeCellId="0" sqref="H63"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H64" activeCellId="0" sqref="H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -335,78 +314,36 @@
       <c r="I6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B8" s="4" t="n">
         <v>2</v>
@@ -427,31 +364,10 @@
         <v>5000</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -474,31 +390,10 @@
         <v>5000</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -521,31 +416,10 @@
         <v>5000</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -568,31 +442,10 @@
         <v>5000</v>
       </c>
       <c r="H11" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I11" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -615,31 +468,10 @@
         <v>5000</v>
       </c>
       <c r="H12" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I12" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="J12" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="K12" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="L12" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="M12" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="N12" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="O12" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="P12" s="4" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -662,31 +494,10 @@
         <v>5000</v>
       </c>
       <c r="H13" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I13" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="J13" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="K13" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="L13" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="M13" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="N13" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="O13" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="P13" s="4" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -709,31 +520,10 @@
         <v>5000</v>
       </c>
       <c r="H14" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I14" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="J14" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="K14" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="L14" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="M14" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="N14" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="O14" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="P14" s="4" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -756,31 +546,10 @@
         <v>5000</v>
       </c>
       <c r="H15" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I15" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="J15" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="K15" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="L15" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="M15" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="N15" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="O15" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="P15" s="4" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -803,31 +572,10 @@
         <v>5000</v>
       </c>
       <c r="H16" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I16" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="J16" s="4" t="n">
-        <v>60</v>
-      </c>
-      <c r="K16" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="L16" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="M16" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="N16" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="O16" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="P16" s="4" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -850,31 +598,10 @@
         <v>5000</v>
       </c>
       <c r="H17" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I17" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="J17" s="4" t="n">
-        <v>60</v>
-      </c>
-      <c r="K17" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="L17" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="M17" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="N17" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="O17" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="P17" s="4" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -897,31 +624,10 @@
         <v>5000</v>
       </c>
       <c r="H18" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I18" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="J18" s="4" t="n">
-        <v>60</v>
-      </c>
-      <c r="K18" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="L18" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="M18" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="N18" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="O18" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="P18" s="4" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -944,31 +650,10 @@
         <v>5000</v>
       </c>
       <c r="H19" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I19" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="J19" s="4" t="n">
-        <v>60</v>
-      </c>
-      <c r="K19" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="L19" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="M19" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="N19" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="O19" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="P19" s="4" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -991,31 +676,10 @@
         <v>5000</v>
       </c>
       <c r="H20" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I20" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="J20" s="4" t="n">
-        <v>60</v>
-      </c>
-      <c r="K20" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="L20" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="M20" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="N20" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="O20" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="P20" s="4" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1038,31 +702,10 @@
         <v>5000</v>
       </c>
       <c r="H21" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I21" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="J21" s="4" t="n">
-        <v>60</v>
-      </c>
-      <c r="K21" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="L21" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="M21" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="N21" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="O21" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="P21" s="4" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1085,31 +728,10 @@
         <v>5000</v>
       </c>
       <c r="H22" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I22" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="J22" s="4" t="n">
-        <v>60</v>
-      </c>
-      <c r="K22" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="L22" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="M22" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="N22" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="O22" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="P22" s="4" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1132,31 +754,10 @@
         <v>5000</v>
       </c>
       <c r="H23" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I23" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="J23" s="4" t="n">
-        <v>60</v>
-      </c>
-      <c r="K23" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="L23" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="M23" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="N23" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="O23" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="P23" s="4" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1179,31 +780,10 @@
         <v>5000</v>
       </c>
       <c r="H24" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I24" s="4" t="n">
-        <v>70</v>
-      </c>
-      <c r="J24" s="4" t="n">
-        <v>80</v>
-      </c>
-      <c r="K24" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="L24" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="M24" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="N24" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="O24" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="P24" s="4" t="n">
-        <v>40</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1226,31 +806,10 @@
         <v>5000</v>
       </c>
       <c r="H25" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I25" s="4" t="n">
-        <v>70</v>
-      </c>
-      <c r="J25" s="4" t="n">
-        <v>80</v>
-      </c>
-      <c r="K25" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="L25" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="M25" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="N25" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="O25" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="P25" s="4" t="n">
-        <v>40</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1273,31 +832,10 @@
         <v>5000</v>
       </c>
       <c r="H26" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I26" s="4" t="n">
-        <v>70</v>
-      </c>
-      <c r="J26" s="4" t="n">
-        <v>80</v>
-      </c>
-      <c r="K26" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="L26" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="M26" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="N26" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="O26" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="P26" s="4" t="n">
-        <v>40</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1320,31 +858,10 @@
         <v>5000</v>
       </c>
       <c r="H27" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I27" s="4" t="n">
-        <v>70</v>
-      </c>
-      <c r="J27" s="4" t="n">
-        <v>80</v>
-      </c>
-      <c r="K27" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="L27" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="M27" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="N27" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="O27" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="P27" s="4" t="n">
-        <v>40</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1367,31 +884,10 @@
         <v>5000</v>
       </c>
       <c r="H28" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I28" s="4" t="n">
-        <v>70</v>
-      </c>
-      <c r="J28" s="4" t="n">
-        <v>80</v>
-      </c>
-      <c r="K28" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="L28" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="M28" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="N28" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="O28" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="P28" s="4" t="n">
-        <v>40</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1414,31 +910,10 @@
         <v>5000</v>
       </c>
       <c r="H29" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I29" s="4" t="n">
-        <v>70</v>
-      </c>
-      <c r="J29" s="4" t="n">
-        <v>80</v>
-      </c>
-      <c r="K29" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="L29" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="M29" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="N29" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="O29" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="P29" s="4" t="n">
-        <v>40</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1461,31 +936,10 @@
         <v>5000</v>
       </c>
       <c r="H30" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I30" s="4" t="n">
-        <v>70</v>
-      </c>
-      <c r="J30" s="4" t="n">
-        <v>80</v>
-      </c>
-      <c r="K30" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="L30" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="M30" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="N30" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="O30" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="P30" s="4" t="n">
-        <v>40</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1508,31 +962,10 @@
         <v>5000</v>
       </c>
       <c r="H31" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I31" s="4" t="n">
-        <v>70</v>
-      </c>
-      <c r="J31" s="4" t="n">
-        <v>80</v>
-      </c>
-      <c r="K31" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="L31" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="M31" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="N31" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="O31" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="P31" s="4" t="n">
-        <v>40</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1555,31 +988,10 @@
         <v>5000</v>
       </c>
       <c r="H32" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I32" s="4" t="n">
-        <v>90</v>
-      </c>
-      <c r="J32" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="K32" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="L32" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="M32" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="N32" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="O32" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="P32" s="4" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1602,31 +1014,10 @@
         <v>5000</v>
       </c>
       <c r="H33" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I33" s="4" t="n">
-        <v>90</v>
-      </c>
-      <c r="J33" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="K33" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="L33" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="M33" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="N33" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="O33" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="P33" s="4" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1649,31 +1040,10 @@
         <v>5000</v>
       </c>
       <c r="H34" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I34" s="4" t="n">
-        <v>90</v>
-      </c>
-      <c r="J34" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="K34" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="L34" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="M34" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="N34" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="O34" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="P34" s="4" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1696,31 +1066,10 @@
         <v>5000</v>
       </c>
       <c r="H35" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I35" s="4" t="n">
-        <v>90</v>
-      </c>
-      <c r="J35" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="K35" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="L35" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="M35" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="N35" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="O35" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="P35" s="4" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1743,31 +1092,10 @@
         <v>5000</v>
       </c>
       <c r="H36" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I36" s="4" t="n">
-        <v>90</v>
-      </c>
-      <c r="J36" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="K36" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="L36" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="M36" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="N36" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="O36" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="P36" s="4" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1790,31 +1118,10 @@
         <v>5000</v>
       </c>
       <c r="H37" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I37" s="4" t="n">
-        <v>90</v>
-      </c>
-      <c r="J37" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="K37" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="L37" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="M37" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="N37" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="O37" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="P37" s="4" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1837,31 +1144,10 @@
         <v>5000</v>
       </c>
       <c r="H38" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I38" s="4" t="n">
-        <v>90</v>
-      </c>
-      <c r="J38" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="K38" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="L38" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="M38" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="N38" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="O38" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="P38" s="4" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1884,31 +1170,10 @@
         <v>5000</v>
       </c>
       <c r="H39" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I39" s="4" t="n">
-        <v>90</v>
-      </c>
-      <c r="J39" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="K39" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="L39" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="M39" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="N39" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="O39" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="P39" s="4" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1931,31 +1196,10 @@
         <v>5000</v>
       </c>
       <c r="H40" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I40" s="4" t="n">
-        <v>110</v>
-      </c>
-      <c r="J40" s="4" t="n">
-        <v>120</v>
-      </c>
-      <c r="K40" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="L40" s="4" t="n">
-        <v>60</v>
-      </c>
-      <c r="M40" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="N40" s="4" t="n">
-        <v>60</v>
-      </c>
-      <c r="O40" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="P40" s="4" t="n">
-        <v>60</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1978,31 +1222,10 @@
         <v>5000</v>
       </c>
       <c r="H41" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I41" s="4" t="n">
-        <v>110</v>
-      </c>
-      <c r="J41" s="4" t="n">
-        <v>120</v>
-      </c>
-      <c r="K41" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="L41" s="4" t="n">
-        <v>60</v>
-      </c>
-      <c r="M41" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="N41" s="4" t="n">
-        <v>60</v>
-      </c>
-      <c r="O41" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="P41" s="4" t="n">
-        <v>60</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2025,31 +1248,10 @@
         <v>5000</v>
       </c>
       <c r="H42" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I42" s="4" t="n">
-        <v>110</v>
-      </c>
-      <c r="J42" s="4" t="n">
-        <v>120</v>
-      </c>
-      <c r="K42" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="L42" s="4" t="n">
-        <v>60</v>
-      </c>
-      <c r="M42" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="N42" s="4" t="n">
-        <v>60</v>
-      </c>
-      <c r="O42" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="P42" s="4" t="n">
-        <v>60</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2072,31 +1274,10 @@
         <v>5000</v>
       </c>
       <c r="H43" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I43" s="4" t="n">
-        <v>110</v>
-      </c>
-      <c r="J43" s="4" t="n">
-        <v>120</v>
-      </c>
-      <c r="K43" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="L43" s="4" t="n">
-        <v>60</v>
-      </c>
-      <c r="M43" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="N43" s="4" t="n">
-        <v>60</v>
-      </c>
-      <c r="O43" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="P43" s="4" t="n">
-        <v>60</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2119,31 +1300,10 @@
         <v>5000</v>
       </c>
       <c r="H44" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I44" s="4" t="n">
-        <v>110</v>
-      </c>
-      <c r="J44" s="4" t="n">
-        <v>120</v>
-      </c>
-      <c r="K44" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="L44" s="4" t="n">
-        <v>60</v>
-      </c>
-      <c r="M44" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="N44" s="4" t="n">
-        <v>60</v>
-      </c>
-      <c r="O44" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="P44" s="4" t="n">
-        <v>60</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2166,31 +1326,10 @@
         <v>5000</v>
       </c>
       <c r="H45" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I45" s="4" t="n">
-        <v>110</v>
-      </c>
-      <c r="J45" s="4" t="n">
-        <v>120</v>
-      </c>
-      <c r="K45" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="L45" s="4" t="n">
-        <v>60</v>
-      </c>
-      <c r="M45" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="N45" s="4" t="n">
-        <v>60</v>
-      </c>
-      <c r="O45" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="P45" s="4" t="n">
-        <v>60</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2213,31 +1352,10 @@
         <v>5000</v>
       </c>
       <c r="H46" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I46" s="4" t="n">
-        <v>110</v>
-      </c>
-      <c r="J46" s="4" t="n">
-        <v>120</v>
-      </c>
-      <c r="K46" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="L46" s="4" t="n">
-        <v>60</v>
-      </c>
-      <c r="M46" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="N46" s="4" t="n">
-        <v>60</v>
-      </c>
-      <c r="O46" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="P46" s="4" t="n">
-        <v>60</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2260,31 +1378,10 @@
         <v>5000</v>
       </c>
       <c r="H47" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I47" s="4" t="n">
-        <v>110</v>
-      </c>
-      <c r="J47" s="4" t="n">
-        <v>120</v>
-      </c>
-      <c r="K47" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="L47" s="4" t="n">
-        <v>60</v>
-      </c>
-      <c r="M47" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="N47" s="4" t="n">
-        <v>60</v>
-      </c>
-      <c r="O47" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="P47" s="4" t="n">
-        <v>60</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2307,31 +1404,10 @@
         <v>5000</v>
       </c>
       <c r="H48" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I48" s="4" t="n">
-        <v>130</v>
-      </c>
-      <c r="J48" s="4" t="n">
-        <v>140</v>
-      </c>
-      <c r="K48" s="4" t="n">
-        <v>60</v>
-      </c>
-      <c r="L48" s="4" t="n">
-        <v>70</v>
-      </c>
-      <c r="M48" s="4" t="n">
-        <v>60</v>
-      </c>
-      <c r="N48" s="4" t="n">
-        <v>70</v>
-      </c>
-      <c r="O48" s="4" t="n">
-        <v>60</v>
-      </c>
-      <c r="P48" s="4" t="n">
-        <v>70</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2354,31 +1430,10 @@
         <v>5000</v>
       </c>
       <c r="H49" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I49" s="4" t="n">
-        <v>130</v>
-      </c>
-      <c r="J49" s="4" t="n">
-        <v>140</v>
-      </c>
-      <c r="K49" s="4" t="n">
-        <v>60</v>
-      </c>
-      <c r="L49" s="4" t="n">
-        <v>70</v>
-      </c>
-      <c r="M49" s="4" t="n">
-        <v>60</v>
-      </c>
-      <c r="N49" s="4" t="n">
-        <v>70</v>
-      </c>
-      <c r="O49" s="4" t="n">
-        <v>60</v>
-      </c>
-      <c r="P49" s="4" t="n">
-        <v>70</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2401,31 +1456,10 @@
         <v>5000</v>
       </c>
       <c r="H50" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I50" s="4" t="n">
-        <v>130</v>
-      </c>
-      <c r="J50" s="4" t="n">
-        <v>140</v>
-      </c>
-      <c r="K50" s="4" t="n">
-        <v>60</v>
-      </c>
-      <c r="L50" s="4" t="n">
-        <v>70</v>
-      </c>
-      <c r="M50" s="4" t="n">
-        <v>60</v>
-      </c>
-      <c r="N50" s="4" t="n">
-        <v>70</v>
-      </c>
-      <c r="O50" s="4" t="n">
-        <v>60</v>
-      </c>
-      <c r="P50" s="4" t="n">
-        <v>70</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2448,31 +1482,10 @@
         <v>5000</v>
       </c>
       <c r="H51" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I51" s="4" t="n">
-        <v>130</v>
-      </c>
-      <c r="J51" s="4" t="n">
-        <v>140</v>
-      </c>
-      <c r="K51" s="4" t="n">
-        <v>60</v>
-      </c>
-      <c r="L51" s="4" t="n">
-        <v>70</v>
-      </c>
-      <c r="M51" s="4" t="n">
-        <v>60</v>
-      </c>
-      <c r="N51" s="4" t="n">
-        <v>70</v>
-      </c>
-      <c r="O51" s="4" t="n">
-        <v>60</v>
-      </c>
-      <c r="P51" s="4" t="n">
-        <v>70</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2495,31 +1508,10 @@
         <v>5000</v>
       </c>
       <c r="H52" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I52" s="4" t="n">
-        <v>130</v>
-      </c>
-      <c r="J52" s="4" t="n">
-        <v>140</v>
-      </c>
-      <c r="K52" s="4" t="n">
-        <v>60</v>
-      </c>
-      <c r="L52" s="4" t="n">
-        <v>70</v>
-      </c>
-      <c r="M52" s="4" t="n">
-        <v>60</v>
-      </c>
-      <c r="N52" s="4" t="n">
-        <v>70</v>
-      </c>
-      <c r="O52" s="4" t="n">
-        <v>60</v>
-      </c>
-      <c r="P52" s="4" t="n">
-        <v>70</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2542,31 +1534,10 @@
         <v>5000</v>
       </c>
       <c r="H53" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I53" s="4" t="n">
-        <v>130</v>
-      </c>
-      <c r="J53" s="4" t="n">
-        <v>140</v>
-      </c>
-      <c r="K53" s="4" t="n">
-        <v>60</v>
-      </c>
-      <c r="L53" s="4" t="n">
-        <v>70</v>
-      </c>
-      <c r="M53" s="4" t="n">
-        <v>60</v>
-      </c>
-      <c r="N53" s="4" t="n">
-        <v>70</v>
-      </c>
-      <c r="O53" s="4" t="n">
-        <v>60</v>
-      </c>
-      <c r="P53" s="4" t="n">
-        <v>70</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2589,31 +1560,10 @@
         <v>5000</v>
       </c>
       <c r="H54" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I54" s="4" t="n">
-        <v>130</v>
-      </c>
-      <c r="J54" s="4" t="n">
-        <v>140</v>
-      </c>
-      <c r="K54" s="4" t="n">
-        <v>60</v>
-      </c>
-      <c r="L54" s="4" t="n">
-        <v>70</v>
-      </c>
-      <c r="M54" s="4" t="n">
-        <v>60</v>
-      </c>
-      <c r="N54" s="4" t="n">
-        <v>70</v>
-      </c>
-      <c r="O54" s="4" t="n">
-        <v>60</v>
-      </c>
-      <c r="P54" s="4" t="n">
-        <v>70</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2636,31 +1586,10 @@
         <v>5000</v>
       </c>
       <c r="H55" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I55" s="4" t="n">
-        <v>130</v>
-      </c>
-      <c r="J55" s="4" t="n">
-        <v>140</v>
-      </c>
-      <c r="K55" s="4" t="n">
-        <v>60</v>
-      </c>
-      <c r="L55" s="4" t="n">
-        <v>70</v>
-      </c>
-      <c r="M55" s="4" t="n">
-        <v>60</v>
-      </c>
-      <c r="N55" s="4" t="n">
-        <v>70</v>
-      </c>
-      <c r="O55" s="4" t="n">
-        <v>60</v>
-      </c>
-      <c r="P55" s="4" t="n">
-        <v>70</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2683,31 +1612,10 @@
         <v>5000</v>
       </c>
       <c r="H56" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I56" s="4" t="n">
-        <v>150</v>
-      </c>
-      <c r="J56" s="4" t="n">
-        <v>160</v>
-      </c>
-      <c r="K56" s="4" t="n">
-        <v>70</v>
-      </c>
-      <c r="L56" s="4" t="n">
-        <v>80</v>
-      </c>
-      <c r="M56" s="4" t="n">
-        <v>70</v>
-      </c>
-      <c r="N56" s="4" t="n">
-        <v>80</v>
-      </c>
-      <c r="O56" s="4" t="n">
-        <v>70</v>
-      </c>
-      <c r="P56" s="4" t="n">
-        <v>80</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2730,31 +1638,10 @@
         <v>5000</v>
       </c>
       <c r="H57" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I57" s="4" t="n">
-        <v>150</v>
-      </c>
-      <c r="J57" s="4" t="n">
-        <v>160</v>
-      </c>
-      <c r="K57" s="4" t="n">
-        <v>70</v>
-      </c>
-      <c r="L57" s="4" t="n">
-        <v>80</v>
-      </c>
-      <c r="M57" s="4" t="n">
-        <v>70</v>
-      </c>
-      <c r="N57" s="4" t="n">
-        <v>80</v>
-      </c>
-      <c r="O57" s="4" t="n">
-        <v>70</v>
-      </c>
-      <c r="P57" s="4" t="n">
-        <v>80</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2777,31 +1664,10 @@
         <v>5000</v>
       </c>
       <c r="H58" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I58" s="4" t="n">
-        <v>150</v>
-      </c>
-      <c r="J58" s="4" t="n">
-        <v>160</v>
-      </c>
-      <c r="K58" s="4" t="n">
-        <v>70</v>
-      </c>
-      <c r="L58" s="4" t="n">
-        <v>80</v>
-      </c>
-      <c r="M58" s="4" t="n">
-        <v>70</v>
-      </c>
-      <c r="N58" s="4" t="n">
-        <v>80</v>
-      </c>
-      <c r="O58" s="4" t="n">
-        <v>70</v>
-      </c>
-      <c r="P58" s="4" t="n">
-        <v>80</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2824,31 +1690,10 @@
         <v>5000</v>
       </c>
       <c r="H59" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I59" s="4" t="n">
-        <v>150</v>
-      </c>
-      <c r="J59" s="4" t="n">
-        <v>160</v>
-      </c>
-      <c r="K59" s="4" t="n">
-        <v>70</v>
-      </c>
-      <c r="L59" s="4" t="n">
-        <v>80</v>
-      </c>
-      <c r="M59" s="4" t="n">
-        <v>70</v>
-      </c>
-      <c r="N59" s="4" t="n">
-        <v>80</v>
-      </c>
-      <c r="O59" s="4" t="n">
-        <v>70</v>
-      </c>
-      <c r="P59" s="4" t="n">
-        <v>80</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2871,31 +1716,10 @@
         <v>5000</v>
       </c>
       <c r="H60" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I60" s="4" t="n">
-        <v>150</v>
-      </c>
-      <c r="J60" s="4" t="n">
-        <v>160</v>
-      </c>
-      <c r="K60" s="4" t="n">
-        <v>70</v>
-      </c>
-      <c r="L60" s="4" t="n">
-        <v>80</v>
-      </c>
-      <c r="M60" s="4" t="n">
-        <v>70</v>
-      </c>
-      <c r="N60" s="4" t="n">
-        <v>80</v>
-      </c>
-      <c r="O60" s="4" t="n">
-        <v>70</v>
-      </c>
-      <c r="P60" s="4" t="n">
-        <v>80</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2918,31 +1742,10 @@
         <v>5000</v>
       </c>
       <c r="H61" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I61" s="4" t="n">
-        <v>150</v>
-      </c>
-      <c r="J61" s="4" t="n">
-        <v>160</v>
-      </c>
-      <c r="K61" s="4" t="n">
-        <v>70</v>
-      </c>
-      <c r="L61" s="4" t="n">
-        <v>80</v>
-      </c>
-      <c r="M61" s="4" t="n">
-        <v>70</v>
-      </c>
-      <c r="N61" s="4" t="n">
-        <v>80</v>
-      </c>
-      <c r="O61" s="4" t="n">
-        <v>70</v>
-      </c>
-      <c r="P61" s="4" t="n">
-        <v>80</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2965,31 +1768,10 @@
         <v>5000</v>
       </c>
       <c r="H62" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I62" s="4" t="n">
-        <v>150</v>
-      </c>
-      <c r="J62" s="4" t="n">
-        <v>160</v>
-      </c>
-      <c r="K62" s="4" t="n">
-        <v>70</v>
-      </c>
-      <c r="L62" s="4" t="n">
-        <v>80</v>
-      </c>
-      <c r="M62" s="4" t="n">
-        <v>70</v>
-      </c>
-      <c r="N62" s="4" t="n">
-        <v>80</v>
-      </c>
-      <c r="O62" s="4" t="n">
-        <v>70</v>
-      </c>
-      <c r="P62" s="4" t="n">
-        <v>80</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3012,31 +1794,10 @@
         <v>5000</v>
       </c>
       <c r="H63" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I63" s="4" t="n">
-        <v>150</v>
-      </c>
-      <c r="J63" s="4" t="n">
-        <v>160</v>
-      </c>
-      <c r="K63" s="4" t="n">
-        <v>70</v>
-      </c>
-      <c r="L63" s="4" t="n">
-        <v>80</v>
-      </c>
-      <c r="M63" s="4" t="n">
-        <v>70</v>
-      </c>
-      <c r="N63" s="4" t="n">
-        <v>80</v>
-      </c>
-      <c r="O63" s="4" t="n">
-        <v>70</v>
-      </c>
-      <c r="P63" s="4" t="n">
-        <v>80</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
